--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/C1qa-Cd93.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/C1qa-Cd93.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,16 +76,16 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>C1qa</t>
+  </si>
+  <si>
+    <t>Cd93</t>
+  </si>
+  <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>C1qa</t>
-  </si>
-  <si>
-    <t>Cd93</t>
   </si>
   <si>
     <t>FAPs</t>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,13 +519,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
         <v>22</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>23</v>
-      </c>
-      <c r="D2" t="s">
-        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -534,16 +534,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>3.247851</v>
+        <v>0.01691733333333333</v>
       </c>
       <c r="H2">
-        <v>9.743553</v>
+        <v>0.050752</v>
       </c>
       <c r="I2">
-        <v>0.9948182132371822</v>
+        <v>1</v>
       </c>
       <c r="J2">
-        <v>0.9948182132371823</v>
+        <v>1</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>122.328922</v>
+        <v>83.91225566666667</v>
       </c>
       <c r="N2">
-        <v>366.986766</v>
+        <v>251.736767</v>
       </c>
       <c r="O2">
-        <v>0.9783373008518612</v>
+        <v>0.9556261553553385</v>
       </c>
       <c r="P2">
-        <v>0.9783373008518613</v>
+        <v>0.9556261553553385</v>
       </c>
       <c r="Q2">
-        <v>397.306111646622</v>
+        <v>1.419571599864889</v>
       </c>
       <c r="R2">
-        <v>3575.755004819598</v>
+        <v>12.776144398784</v>
       </c>
       <c r="S2">
-        <v>0.9732677655767362</v>
+        <v>0.9556261553553385</v>
       </c>
       <c r="T2">
-        <v>0.9732677655767363</v>
+        <v>0.9556261553553385</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,10 +581,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
         <v>22</v>
-      </c>
-      <c r="C3" t="s">
-        <v>23</v>
       </c>
       <c r="D3" t="s">
         <v>24</v>
@@ -596,16 +596,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>3.247851</v>
+        <v>0.01691733333333333</v>
       </c>
       <c r="H3">
-        <v>9.743553</v>
+        <v>0.050752</v>
       </c>
       <c r="I3">
-        <v>0.9948182132371822</v>
+        <v>1</v>
       </c>
       <c r="J3">
-        <v>0.9948182132371823</v>
+        <v>1</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>1.159072</v>
       </c>
       <c r="O3">
-        <v>0.003089929874945324</v>
+        <v>0.00439999103960854</v>
       </c>
       <c r="P3">
-        <v>0.003089929874945324</v>
+        <v>0.00439999103960854</v>
       </c>
       <c r="Q3">
-        <v>1.254831051424</v>
+        <v>0.006536135793777778</v>
       </c>
       <c r="R3">
-        <v>11.293479462816</v>
+        <v>0.058825222144</v>
       </c>
       <c r="S3">
-        <v>0.003073918517221297</v>
+        <v>0.00439999103960854</v>
       </c>
       <c r="T3">
-        <v>0.003073918517221297</v>
+        <v>0.00439999103960854</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,13 +643,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -658,16 +658,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>3.247851</v>
+        <v>0.01691733333333333</v>
       </c>
       <c r="H4">
-        <v>9.743553</v>
+        <v>0.050752</v>
       </c>
       <c r="I4">
-        <v>0.9948182132371822</v>
+        <v>1</v>
       </c>
       <c r="J4">
-        <v>0.9948182132371823</v>
+        <v>1</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,214 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.322294</v>
+        <v>3.510050666666667</v>
       </c>
       <c r="N4">
-        <v>6.966882</v>
+        <v>10.530152</v>
       </c>
       <c r="O4">
-        <v>0.0185727692731934</v>
+        <v>0.03997385360505296</v>
       </c>
       <c r="P4">
-        <v>0.0185727692731934</v>
+        <v>0.03997385360505297</v>
       </c>
       <c r="Q4">
-        <v>7.542464890194</v>
+        <v>0.05938069714488889</v>
       </c>
       <c r="R4">
-        <v>67.88218401174601</v>
+        <v>0.534426274304</v>
       </c>
       <c r="S4">
-        <v>0.0184765291432247</v>
+        <v>0.03997385360505296</v>
       </c>
       <c r="T4">
-        <v>0.0184765291432247</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20">
-      <c r="A5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G5">
-        <v>0.01691733333333333</v>
-      </c>
-      <c r="H5">
-        <v>0.050752</v>
-      </c>
-      <c r="I5">
-        <v>0.00518178676281778</v>
-      </c>
-      <c r="J5">
-        <v>0.00518178676281778</v>
-      </c>
-      <c r="K5">
-        <v>3</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>122.328922</v>
-      </c>
-      <c r="N5">
-        <v>366.986766</v>
-      </c>
-      <c r="O5">
-        <v>0.9783373008518612</v>
-      </c>
-      <c r="P5">
-        <v>0.9783373008518613</v>
-      </c>
-      <c r="Q5">
-        <v>2.069479149781333</v>
-      </c>
-      <c r="R5">
-        <v>18.625312348032</v>
-      </c>
-      <c r="S5">
-        <v>0.00506953527512505</v>
-      </c>
-      <c r="T5">
-        <v>0.005069535275125051</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="A6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G6">
-        <v>0.01691733333333333</v>
-      </c>
-      <c r="H6">
-        <v>0.050752</v>
-      </c>
-      <c r="I6">
-        <v>0.00518178676281778</v>
-      </c>
-      <c r="J6">
-        <v>0.00518178676281778</v>
-      </c>
-      <c r="K6">
-        <v>3</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
-      <c r="M6">
-        <v>0.3863573333333334</v>
-      </c>
-      <c r="N6">
-        <v>1.159072</v>
-      </c>
-      <c r="O6">
-        <v>0.003089929874945324</v>
-      </c>
-      <c r="P6">
-        <v>0.003089929874945324</v>
-      </c>
-      <c r="Q6">
-        <v>0.006536135793777778</v>
-      </c>
-      <c r="R6">
-        <v>0.058825222144</v>
-      </c>
-      <c r="S6">
-        <v>1.601135772402688E-05</v>
-      </c>
-      <c r="T6">
-        <v>1.601135772402688E-05</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G7">
-        <v>0.01691733333333333</v>
-      </c>
-      <c r="H7">
-        <v>0.050752</v>
-      </c>
-      <c r="I7">
-        <v>0.00518178676281778</v>
-      </c>
-      <c r="J7">
-        <v>0.00518178676281778</v>
-      </c>
-      <c r="K7">
-        <v>3</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>2.322294</v>
-      </c>
-      <c r="N7">
-        <v>6.966882</v>
-      </c>
-      <c r="O7">
-        <v>0.0185727692731934</v>
-      </c>
-      <c r="P7">
-        <v>0.0185727692731934</v>
-      </c>
-      <c r="Q7">
-        <v>0.039287021696</v>
-      </c>
-      <c r="R7">
-        <v>0.353583195264</v>
-      </c>
-      <c r="S7">
-        <v>9.624012996870237E-05</v>
-      </c>
-      <c r="T7">
-        <v>9.624012996870239E-05</v>
+        <v>0.03997385360505297</v>
       </c>
     </row>
   </sheetData>
